--- a/msci/msci_size별 경계 종목.xlsx
+++ b/msci/msci_size별 경계 종목.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="CIQWBGuid" hidden="1">"b866ade5-3d9b-4326-889a-2165e53fa458"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
     <definedName name="IQ_CY">10000</definedName>
@@ -112,34 +113,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현대건설</t>
-  </si>
-  <si>
     <t>롯데케미칼</t>
   </si>
   <si>
-    <t>삼성생명</t>
-  </si>
-  <si>
-    <t>현대모비스</t>
-  </si>
-  <si>
-    <t>한국금융지주</t>
-  </si>
-  <si>
     <t>농심</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
-    <t>KT</t>
-  </si>
-  <si>
-    <t>현대해상</t>
-  </si>
-  <si>
-    <t>미래에셋증권</t>
   </si>
   <si>
     <t>대형주</t>
@@ -170,39 +147,6 @@
     <t>div_yield</t>
   </si>
   <si>
-    <t>SK이노베이션</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>삼성증권</t>
-  </si>
-  <si>
-    <t>삼성카드</t>
-  </si>
-  <si>
-    <t>한화케미칼</t>
-  </si>
-  <si>
-    <t>KCC</t>
-  </si>
-  <si>
-    <t>S-Oil</t>
-  </si>
-  <si>
-    <t>동부화재</t>
-  </si>
-  <si>
-    <t>한국가스공사</t>
-  </si>
-  <si>
-    <t>LG유플러스</t>
-  </si>
-  <si>
-    <t>현대백화점</t>
-  </si>
-  <si>
     <t>세방전지</t>
   </si>
   <si>
@@ -320,76 +264,130 @@
     <t>동원금속</t>
   </si>
   <si>
-    <t>PN풍년</t>
-  </si>
-  <si>
-    <t>세명전기</t>
-  </si>
-  <si>
-    <t>네패스</t>
-  </si>
-  <si>
-    <t>아이크래프트</t>
-  </si>
-  <si>
-    <t>리노공업</t>
-  </si>
-  <si>
-    <t>아모텍</t>
-  </si>
-  <si>
-    <t>파인디앤씨</t>
-  </si>
-  <si>
-    <t>코맥스</t>
-  </si>
-  <si>
-    <t>참좋은레져</t>
-  </si>
-  <si>
-    <t>농우바이오</t>
-  </si>
-  <si>
-    <t>포메탈</t>
-  </si>
-  <si>
-    <t>에스티오</t>
-  </si>
-  <si>
-    <t>대성창투</t>
-  </si>
-  <si>
-    <t>동화기업</t>
-  </si>
-  <si>
-    <t>승일</t>
-  </si>
-  <si>
-    <t>동방선기</t>
-  </si>
-  <si>
-    <t>한국큐빅</t>
-  </si>
-  <si>
-    <t>안국약품</t>
-  </si>
-  <si>
-    <t>프리엠스</t>
-  </si>
-  <si>
-    <t>예림당</t>
-  </si>
-  <si>
-    <t>성호전자</t>
+    <t>롯데쇼핑</t>
+  </si>
+  <si>
+    <t>이마트</t>
+  </si>
+  <si>
+    <t>대림산업</t>
+  </si>
+  <si>
+    <t>현대위아</t>
+  </si>
+  <si>
+    <t>LG화학</t>
+  </si>
+  <si>
+    <t>한국타이어</t>
+  </si>
+  <si>
+    <t>현대글로비스</t>
+  </si>
+  <si>
+    <t>한전KPS</t>
+  </si>
+  <si>
+    <t>KT&amp;G</t>
+  </si>
+  <si>
+    <t>삼성화재</t>
+  </si>
+  <si>
+    <t>강원랜드</t>
+  </si>
+  <si>
+    <t>CJ</t>
+  </si>
+  <si>
+    <t>SK하이닉스</t>
+  </si>
+  <si>
+    <t>LG디스플레이</t>
+  </si>
+  <si>
+    <t>LG전자</t>
+  </si>
+  <si>
+    <t>현대중공업</t>
+  </si>
+  <si>
+    <t>삼성SDI</t>
+  </si>
+  <si>
+    <t>고려아연</t>
+  </si>
+  <si>
+    <t>코웨이</t>
+  </si>
+  <si>
+    <t>태양</t>
+  </si>
+  <si>
+    <t>해성옵틱스</t>
+  </si>
+  <si>
+    <t>한강인터트레이드</t>
+  </si>
+  <si>
+    <t>에스앤더블류</t>
+  </si>
+  <si>
+    <t>에너토크</t>
+  </si>
+  <si>
+    <t>지엔씨에너지</t>
+  </si>
+  <si>
+    <t>청담러닝</t>
+  </si>
+  <si>
+    <t>피에스텍</t>
+  </si>
+  <si>
+    <t>엠에스오토텍</t>
+  </si>
+  <si>
+    <t>진성티이씨</t>
+  </si>
+  <si>
+    <t>삼표시멘트</t>
+  </si>
+  <si>
+    <t>예스24</t>
+  </si>
+  <si>
+    <t>YW</t>
+  </si>
+  <si>
+    <t>대동스틸</t>
+  </si>
+  <si>
+    <t>케이씨티</t>
+  </si>
+  <si>
+    <t>서암기계공업</t>
+  </si>
+  <si>
+    <t>한일진공</t>
+  </si>
+  <si>
+    <t>비엠티</t>
+  </si>
+  <si>
+    <t>씨엠에스에듀</t>
+  </si>
+  <si>
+    <t>티플랙스</t>
+  </si>
+  <si>
+    <t>탑엔지니어링</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.E+00"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,7 +433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,15 +449,40 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -737,7 +760,7 @@
   <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -748,7 +771,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
@@ -780,7 +803,7 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>9</v>
@@ -806,1183 +829,1183 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9858891104.4771996</v>
+        <v>4570798500.7449999</v>
       </c>
       <c r="D3">
-        <v>16564065033</v>
+        <v>8207779513</v>
       </c>
       <c r="E3">
-        <v>1374499238</v>
+        <v>1428690978.3099999</v>
       </c>
       <c r="F3">
-        <v>441333115</v>
+        <v>84230078</v>
       </c>
       <c r="G3">
-        <v>15049791574400</v>
+        <v>10214074862000</v>
       </c>
       <c r="H3">
-        <v>1.1006175700915199E-3</v>
-      </c>
-      <c r="I3" s="1">
-        <v>9.1330117842831096E-5</v>
+        <v>8.0357542155245598E-4</v>
+      </c>
+      <c r="I3">
+        <v>1.3987473144780199E-4</v>
       </c>
       <c r="J3" s="1">
-        <v>2.9324865584897299E-5</v>
+        <v>8.2464715735896805E-6</v>
       </c>
       <c r="K3">
-        <v>0.207669392542395</v>
+        <v>-0.26824901496300602</v>
       </c>
       <c r="L3">
-        <v>0.13745344981888799</v>
+        <v>1.0273749277228501</v>
       </c>
       <c r="M3">
-        <v>1.1967824410050001</v>
+        <v>-0.63655195492111505</v>
       </c>
       <c r="N3">
-        <v>0.51396842778876195</v>
+        <v>4.0857985946245401E-2</v>
       </c>
       <c r="O3" s="3">
         <f>1/H3/1000</f>
-        <v>0.90858080697080523</v>
+        <v>1.2444382607771456</v>
       </c>
       <c r="P3" s="3">
         <f>1/I3/1000</f>
-        <v>10.949290591312801</v>
+        <v>7.1492541193773578</v>
       </c>
       <c r="Q3" s="3">
         <f>J3*1000</f>
-        <v>2.9324865584897299E-2</v>
+        <v>8.246471573589681E-3</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>7221020992.8723898</v>
+        <v>946953005.73039997</v>
       </c>
       <c r="D4">
-        <v>12920284000</v>
+        <v>1759087683</v>
       </c>
       <c r="E4">
-        <v>2830497000</v>
+        <v>209984460</v>
       </c>
       <c r="F4">
-        <v>189802813</v>
+        <v>23130500</v>
       </c>
       <c r="G4">
-        <v>14992245054000</v>
+        <v>1909949588000</v>
       </c>
       <c r="H4">
-        <v>8.6179781303353197E-4</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1.8879740758004799E-4</v>
+        <v>9.2101262465362995E-4</v>
+      </c>
+      <c r="I4">
+        <v>1.0994240964228E-4</v>
       </c>
       <c r="J4" s="1">
-        <v>1.2660066075251299E-5</v>
+        <v>1.2110529065964E-5</v>
       </c>
       <c r="K4">
-        <v>-0.174965593835362</v>
+        <v>-8.0092125589953406E-2</v>
       </c>
       <c r="L4">
-        <v>1.92422706050339</v>
+        <v>0.47865460470148202</v>
       </c>
       <c r="M4">
-        <v>-0.25267097208979</v>
+        <v>-0.3004680243899</v>
       </c>
       <c r="N4">
-        <v>0.498863498192746</v>
+        <v>3.26981515738759E-2</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" ref="O4:O23" si="0">1/H4/1000</f>
-        <v>1.1603649775809894</v>
+        <v>1.0857614469465879</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4:P23" si="1">1/I4/1000</f>
-        <v>5.2966828984450496</v>
+        <v>9.0956711177579557</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" ref="Q4:Q23" si="2">J4*1000</f>
-        <v>1.2660066075251299E-2</v>
+        <v>1.2110529065964E-2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1635681855.5322001</v>
+        <v>3156727433.1075001</v>
       </c>
       <c r="D5">
-        <v>3222417310</v>
+        <v>7356945081</v>
       </c>
       <c r="E5">
-        <v>215517164</v>
+        <v>235554413.36000001</v>
       </c>
       <c r="F5">
-        <v>52738513</v>
+        <v>41796270</v>
       </c>
       <c r="G5">
-        <v>2405866859550</v>
+        <v>4390441492500</v>
       </c>
       <c r="H5">
-        <v>1.3393996834067199E-3</v>
+        <v>1.6756731853886501E-3</v>
       </c>
       <c r="I5" s="1">
-        <v>8.9579838196162995E-5</v>
+        <v>5.3651646141370299E-5</v>
       </c>
       <c r="J5" s="1">
-        <v>2.1920794490624599E-5</v>
+        <v>9.5198330444441001E-6</v>
       </c>
       <c r="K5">
-        <v>0.59024406643517902</v>
+        <v>1.12901861522099</v>
       </c>
       <c r="L5">
-        <v>0.105367264880161</v>
+        <v>-0.55326955180148396</v>
       </c>
       <c r="M5">
-        <v>0.55279892880143899</v>
+        <v>-0.52579885951393501</v>
       </c>
       <c r="N5">
-        <v>0.41613675337226003</v>
+        <v>1.6650067968526298E-2</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="0"/>
-        <v>0.74660313302190151</v>
+        <v>0.59677508043912708</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="1"/>
-        <v>11.163226236356758</v>
+        <v>18.638757091721533</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="2"/>
-        <v>2.19207944906246E-2</v>
+        <v>9.5198330444440996E-3</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>2844460525.5834999</v>
+        <v>2211579672</v>
       </c>
       <c r="D6">
-        <v>6006117000</v>
+        <v>4497931980</v>
       </c>
       <c r="E6">
-        <v>555531000</v>
+        <v>274424881</v>
       </c>
       <c r="F6">
-        <v>55677883</v>
+        <v>10440000</v>
       </c>
       <c r="G6">
-        <v>4375320465850</v>
+        <v>2990750000000</v>
       </c>
       <c r="H6">
-        <v>1.3727261915735299E-3</v>
+        <v>1.50394783248349E-3</v>
       </c>
       <c r="I6" s="1">
-        <v>1.2696921387496E-4</v>
+        <v>9.1757880464766304E-5</v>
       </c>
       <c r="J6" s="1">
-        <v>1.27254411270154E-5</v>
+        <v>3.4907631864916799E-6</v>
       </c>
       <c r="K6">
-        <v>0.64363951476623205</v>
+        <v>0.85388171332042295</v>
       </c>
       <c r="L6">
-        <v>0.79079054855780995</v>
+        <v>0.14529520849065999</v>
       </c>
       <c r="M6">
-        <v>-0.24698484956212899</v>
+        <v>-1.0501889596371199</v>
       </c>
       <c r="N6">
-        <v>0.39581507125397097</v>
+        <v>-1.7004012608679401E-2</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="0"/>
-        <v>0.72847739493752861</v>
+        <v>0.66491668022067374</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="1"/>
-        <v>7.8759249544130094</v>
+        <v>10.898246504113459</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="2"/>
-        <v>1.27254411270154E-2</v>
+        <v>3.4907631864916798E-3</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1770015995.06985</v>
+        <v>1338635536.34552</v>
       </c>
       <c r="D7">
-        <v>3473164583.4400001</v>
+        <v>3229719440</v>
       </c>
       <c r="E7">
-        <v>170921109.44</v>
+        <v>111289261.25</v>
       </c>
       <c r="F7">
-        <v>70106125</v>
+        <v>29217968</v>
       </c>
       <c r="G7">
-        <v>2644656709000</v>
+        <v>2355094187800</v>
       </c>
       <c r="H7">
-        <v>1.3132761509728301E-3</v>
+        <v>1.3713759121528001E-3</v>
       </c>
       <c r="I7" s="1">
-        <v>6.4628845346294001E-5</v>
+        <v>4.7254696574985103E-5</v>
       </c>
       <c r="J7" s="1">
-        <v>2.6508591743277101E-5</v>
+        <v>1.24062842799904E-5</v>
       </c>
       <c r="K7">
-        <v>0.54838916464598697</v>
+        <v>0.64147610854674797</v>
       </c>
       <c r="L7">
-        <v>-0.35203516935927698</v>
+        <v>-0.67053864489839099</v>
       </c>
       <c r="M7">
-        <v>0.95183153538006005</v>
+        <v>-0.27474413829315802</v>
       </c>
       <c r="N7">
-        <v>0.38272851022225701</v>
+        <v>-0.101268891548266</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="0"/>
-        <v>0.76145447342452244</v>
+        <v>0.72919466583760373</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="1"/>
-        <v>15.472967134749265</v>
+        <v>21.161917702998505</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="2"/>
-        <v>2.6508591743277101E-2</v>
+        <v>1.2406284279990399E-2</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1486540245.4535</v>
+        <v>10550147052.48</v>
       </c>
       <c r="D8">
-        <v>6650265791</v>
+        <v>13382959000</v>
       </c>
       <c r="E8">
-        <v>359739580.75999999</v>
+        <v>1218079000</v>
       </c>
       <c r="F8">
-        <v>173101043</v>
+        <v>296600873</v>
       </c>
       <c r="G8">
-        <v>5804530439100</v>
+        <v>17259428154500</v>
       </c>
       <c r="H8">
-        <v>1.1457026301736699E-3</v>
+        <v>7.7539990781853895E-4</v>
       </c>
       <c r="I8" s="1">
-        <v>6.1975655831994901E-5</v>
+        <v>7.05747020756544E-5</v>
       </c>
       <c r="J8" s="1">
-        <v>2.9821713369607101E-5</v>
+        <v>1.7184860955121899E-5</v>
       </c>
       <c r="K8">
-        <v>0.27990429288267199</v>
+        <v>-0.313391583762898</v>
       </c>
       <c r="L8">
-        <v>-0.40067352814688501</v>
+        <v>-0.24303552521635099</v>
       </c>
       <c r="M8">
-        <v>1.23999674531867</v>
+        <v>0.14088188033943599</v>
       </c>
       <c r="N8">
-        <v>0.37307583668482103</v>
+        <v>-0.138515076213271</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="0"/>
-        <v>0.87282683452373355</v>
+        <v>1.289657104568579</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="1"/>
-        <v>16.135367775870321</v>
+        <v>14.169383229248687</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="2"/>
-        <v>2.9821713369607102E-2</v>
+        <v>1.7184860955121898E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2499521811.9042602</v>
+        <v>4224330620.5062599</v>
       </c>
       <c r="D9">
-        <v>4982443783</v>
+        <v>5483825614</v>
       </c>
       <c r="E9">
-        <v>639697777.48000002</v>
+        <v>858926083</v>
       </c>
       <c r="F9">
-        <v>24290936</v>
+        <v>49541072</v>
       </c>
       <c r="G9">
-        <v>4003444563600</v>
+        <v>7358179098600</v>
       </c>
       <c r="H9">
-        <v>1.24453922212417E-3</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1.59786845382159E-4</v>
+        <v>7.4526938533520798E-4</v>
+      </c>
+      <c r="I9">
+        <v>1.16730793242505E-4</v>
       </c>
       <c r="J9" s="1">
-        <v>6.0675090198219097E-6</v>
+        <v>6.7327896394130797E-6</v>
       </c>
       <c r="K9">
-        <v>0.43825944105168302</v>
+        <v>-0.361666450976521</v>
       </c>
       <c r="L9">
-        <v>1.3924044653941701</v>
+        <v>0.60309947957989296</v>
       </c>
       <c r="M9">
-        <v>-0.826071469316494</v>
+        <v>-0.768207390953349</v>
       </c>
       <c r="N9">
-        <v>0.33486414570978701</v>
+        <v>-0.175591454116659</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" si="0"/>
-        <v>0.80351023272147881</v>
+        <v>1.3417966975125633</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="1"/>
-        <v>6.2583374595594528</v>
+        <v>8.5667198193584415</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="2"/>
-        <v>6.0675090198219093E-3</v>
+        <v>6.7327896394130801E-3</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>5788765445.8004503</v>
+        <v>3300761250</v>
       </c>
       <c r="D10">
-        <v>13387594000</v>
+        <v>3250107537</v>
       </c>
       <c r="E10">
-        <v>1085669000</v>
+        <v>628818442.54999995</v>
       </c>
       <c r="F10">
-        <v>224202345</v>
+        <v>112500000</v>
       </c>
       <c r="G10">
-        <v>11300845334250</v>
+        <v>6787500000000</v>
       </c>
       <c r="H10">
-        <v>1.18465420984265E-3</v>
+        <v>4.7883720618784498E-4</v>
       </c>
       <c r="I10" s="1">
-        <v>9.6069715838832998E-5</v>
+        <v>9.2643601112338806E-5</v>
       </c>
       <c r="J10" s="1">
-        <v>1.9839431331787102E-5</v>
+        <v>1.65745856353591E-5</v>
       </c>
       <c r="K10">
-        <v>0.34231218299879601</v>
+        <v>-0.78854182550381802</v>
       </c>
       <c r="L10">
-        <v>0.22433991857513999</v>
+        <v>0.161532268983342</v>
       </c>
       <c r="M10">
-        <v>0.37176831197820398</v>
+        <v>8.7801995121148196E-2</v>
       </c>
       <c r="N10">
-        <v>0.31280680451738002</v>
+        <v>-0.179735853799776</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" si="0"/>
-        <v>0.84412817824099362</v>
+        <v>2.0883924370899991</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="1"/>
-        <v>10.409107503530089</v>
+        <v>10.7940536420579</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="2"/>
-        <v>1.9839431331787102E-2</v>
+        <v>1.6574585635359101E-2</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>8775490000</v>
+        <v>1229232600</v>
       </c>
       <c r="D11">
-        <v>27530172000</v>
+        <v>748899609</v>
       </c>
       <c r="E11">
-        <v>2167243000</v>
+        <v>117300703.56</v>
       </c>
       <c r="F11">
-        <v>332793625</v>
+        <v>76050000</v>
       </c>
       <c r="G11">
-        <v>21100000000000</v>
+        <v>2601000000000</v>
       </c>
       <c r="H11">
-        <v>1.3047474881516499E-3</v>
+        <v>2.8792756978085298E-4</v>
       </c>
       <c r="I11" s="1">
-        <v>1.02712938388625E-4</v>
+        <v>4.5098309711649299E-5</v>
       </c>
       <c r="J11" s="1">
-        <v>1.57722097156398E-5</v>
+        <v>2.9238754325259499E-5</v>
       </c>
       <c r="K11">
-        <v>0.53472461351084799</v>
+        <v>-1.0944156234921201</v>
       </c>
       <c r="L11">
-        <v>0.34612369622891798</v>
+        <v>-0.71006960089627602</v>
       </c>
       <c r="M11">
-        <v>1.8013785863122099E-2</v>
+        <v>1.18929274638757</v>
       </c>
       <c r="N11">
-        <v>0.29962069853429601</v>
+        <v>-0.205064159333608</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="0"/>
-        <v>0.76643182614333627</v>
+        <v>3.4730956843108793</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="1"/>
-        <v>9.7358717965637087</v>
+        <v>22.173780046166364</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="2"/>
-        <v>1.57722097156398E-2</v>
+        <v>2.9238754325259499E-2</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>2267914804.2627902</v>
+        <v>12752756815.0875</v>
       </c>
       <c r="D12">
-        <v>5728709146</v>
+        <v>6370617458</v>
       </c>
       <c r="E12">
-        <v>266101819.84</v>
+        <v>982383943.47000003</v>
       </c>
       <c r="F12">
-        <v>88501032</v>
+        <v>428284033</v>
       </c>
       <c r="G12">
-        <v>4175100891500</v>
+        <v>17161562125000</v>
       </c>
       <c r="H12">
-        <v>1.37211274526633E-3</v>
+        <v>3.7121431088838001E-4</v>
       </c>
       <c r="I12" s="1">
-        <v>6.3735422629367103E-5</v>
+        <v>5.7243270531819298E-5</v>
       </c>
       <c r="J12" s="1">
-        <v>2.1197339729005599E-5</v>
+        <v>2.4956005163195398E-5</v>
       </c>
       <c r="K12">
-        <v>0.64265665630306301</v>
+        <v>-0.960974314273357</v>
       </c>
       <c r="L12">
-        <v>-0.36841342444459801</v>
+        <v>-0.487427773522359</v>
       </c>
       <c r="M12">
-        <v>0.48987504106781898</v>
+        <v>0.81679229195429903</v>
       </c>
       <c r="N12">
-        <v>0.25470609097542801</v>
+        <v>-0.210536598613805</v>
       </c>
       <c r="O12" s="3">
         <f t="shared" si="0"/>
-        <v>0.7288030837479742</v>
+        <v>2.6938616606855139</v>
       </c>
       <c r="P12" s="3">
         <f t="shared" si="1"/>
-        <v>15.689862226460459</v>
+        <v>17.469302342607051</v>
       </c>
       <c r="Q12" s="3">
         <f t="shared" si="2"/>
-        <v>2.1197339729005598E-2</v>
+        <v>2.4956005163195398E-2</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>2170654350</v>
+        <v>1934603586.40499</v>
       </c>
       <c r="D13" s="2">
-        <v>3504313509.8400002</v>
+        <v>16253054384</v>
       </c>
       <c r="E13" s="2">
-        <v>320309895.88999999</v>
+        <v>-355792268.63</v>
       </c>
       <c r="F13" s="2">
-        <v>59801586</v>
+        <v>59104408</v>
       </c>
       <c r="G13" s="2">
-        <v>3240750000000</v>
+        <v>6502869198000</v>
       </c>
       <c r="H13" s="2">
-        <v>1.0813279363850899E-3</v>
-      </c>
-      <c r="I13" s="5">
-        <v>9.8838199765486303E-5</v>
+        <v>2.49936664710997E-3</v>
+      </c>
+      <c r="I13" s="4">
+        <v>-5.4713120900452101E-5</v>
       </c>
       <c r="J13" s="4">
-        <v>1.8453008099976799E-5</v>
+        <v>9.0889738360688393E-6</v>
       </c>
       <c r="K13" s="2">
-        <v>0.17676370525163099</v>
+        <v>2.44873328367138</v>
       </c>
       <c r="L13" s="2">
-        <v>0.27509185838063899</v>
+        <v>-2.539816080389</v>
       </c>
       <c r="M13" s="2">
-        <v>0.25118144958132099</v>
+        <v>-0.56327367880482204</v>
       </c>
       <c r="N13" s="2">
-        <v>0.234345671071197</v>
+        <v>-0.21811882517414799</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="0"/>
-        <v>0.9247888326487046</v>
+        <v>0.40010136214160691</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" si="1"/>
-        <v>10.117545669313111</v>
+        <v>-18.27715150483651</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="2"/>
-        <v>1.8453008099976798E-2</v>
+        <v>9.0889738360688394E-3</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>3340385478.3801599</v>
+        <v>8680974606.8474007</v>
       </c>
       <c r="D14">
-        <v>6115314000</v>
+        <v>11425577365.049999</v>
       </c>
       <c r="E14">
-        <v>1083975000</v>
+        <v>836154814.11000001</v>
       </c>
       <c r="F14">
-        <v>202649026</v>
+        <v>207624727</v>
       </c>
       <c r="G14">
-        <v>9348449758200</v>
+        <v>13825402941500</v>
       </c>
       <c r="H14">
-        <v>6.5415273742429304E-4</v>
+        <v>8.2641912235003299E-4</v>
       </c>
       <c r="I14" s="1">
-        <v>1.1595238013117499E-4</v>
+        <v>6.04795981461123E-5</v>
       </c>
       <c r="J14" s="1">
-        <v>2.1677286741820002E-5</v>
+        <v>1.50176257342032E-5</v>
       </c>
       <c r="K14">
-        <v>-0.50765277037351397</v>
+        <v>-0.231649031564749</v>
       </c>
       <c r="L14">
-        <v>0.58882958442547695</v>
+        <v>-0.42809930760996101</v>
       </c>
       <c r="M14">
-        <v>0.53161936781029195</v>
+        <v>-4.7617626427602901E-2</v>
       </c>
       <c r="N14">
-        <v>0.20426539395408499</v>
+        <v>-0.235788655200771</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="0"/>
-        <v>1.5286949710513638</v>
+        <v>1.2100397642740486</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="1"/>
-        <v>8.6242300405452372</v>
+        <v>16.534501396390002</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="2"/>
-        <v>2.1677286741820002E-2</v>
+        <v>1.50176257342032E-2</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>3194092440</v>
+        <v>4404037932.2700005</v>
       </c>
       <c r="D15">
-        <v>4288426206.1399999</v>
+        <v>3071861977</v>
       </c>
       <c r="E15">
-        <v>479639496.58999997</v>
+        <v>483794401.5</v>
       </c>
       <c r="F15">
-        <v>98112427</v>
+        <v>198684218</v>
       </c>
       <c r="G15">
-        <v>4828560000000</v>
+        <v>8407861650000</v>
       </c>
       <c r="H15">
-        <v>8.8813770692297404E-4</v>
+        <v>3.6535591389042399E-4</v>
       </c>
       <c r="I15" s="1">
-        <v>9.9333858663866605E-5</v>
+        <v>5.7540718632067402E-5</v>
       </c>
       <c r="J15" s="1">
-        <v>2.03191897791474E-5</v>
+        <v>2.3630766807396201E-5</v>
       </c>
       <c r="K15">
-        <v>-0.13276403955972099</v>
+        <v>-0.97036058818604698</v>
       </c>
       <c r="L15">
-        <v>0.28417829385981003</v>
+        <v>-0.48197494501441202</v>
       </c>
       <c r="M15">
-        <v>0.41349623787283502</v>
+        <v>0.70152710338329605</v>
       </c>
       <c r="N15">
-        <v>0.18830349739097399</v>
+        <v>-0.25026947660572102</v>
       </c>
       <c r="O15" s="3">
         <f t="shared" si="0"/>
-        <v>1.1259515187848312</v>
+        <v>2.7370571050888088</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" si="1"/>
-        <v>10.067060853680067</v>
+        <v>17.378997408675058</v>
       </c>
       <c r="Q15" s="3">
         <f t="shared" si="2"/>
-        <v>2.0319189779147401E-2</v>
+        <v>2.3630766807396199E-2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>1787142754.7999899</v>
+        <v>2527600177.9224</v>
       </c>
       <c r="D16">
-        <v>10422023516</v>
+        <v>3679353019</v>
       </c>
       <c r="E16">
-        <v>126278573.81999999</v>
+        <v>637392966</v>
       </c>
       <c r="F16">
-        <v>14898331</v>
+        <v>35318944</v>
       </c>
       <c r="G16">
-        <v>4080234600000</v>
+        <v>5608537601800</v>
       </c>
       <c r="H16">
-        <v>2.55427065786854E-3</v>
-      </c>
-      <c r="I16" s="1">
-        <v>3.0948851279286702E-5</v>
+        <v>6.5602716433944396E-4</v>
+      </c>
+      <c r="I16">
+        <v>1.1364690963210001E-4</v>
       </c>
       <c r="J16" s="1">
-        <v>3.65134176353487E-6</v>
+        <v>6.2973535184402998E-6</v>
       </c>
       <c r="K16">
-        <v>2.5367000233896002</v>
+        <v>-0.50464957949022904</v>
       </c>
       <c r="L16">
-        <v>-0.96945794544330999</v>
+        <v>0.54656562223810701</v>
       </c>
       <c r="M16">
-        <v>-1.03622232496921</v>
+        <v>-0.80608029613672305</v>
       </c>
       <c r="N16">
-        <v>0.177006584325692</v>
+        <v>-0.25472141779628099</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" si="0"/>
-        <v>0.39150118916312066</v>
+        <v>1.5243271229582445</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="1"/>
-        <v>32.311376954700584</v>
+        <v>8.7991833938751132</v>
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="2"/>
-        <v>3.6513417635348701E-3</v>
+        <v>6.2973535184402997E-3</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>17957022407.610001</v>
+        <v>22303386215.133202</v>
       </c>
       <c r="D17">
-        <v>26861222000</v>
+        <v>21697159000</v>
       </c>
       <c r="E17">
-        <v>3200249000</v>
+        <v>2203276000</v>
       </c>
       <c r="F17">
-        <v>330973328</v>
+        <v>353000898</v>
       </c>
       <c r="G17">
-        <v>26769562325000</v>
+        <v>29265695073000</v>
       </c>
       <c r="H17">
-        <v>1.00342402590999E-3</v>
+        <v>7.4138539836073796E-4</v>
       </c>
       <c r="I17" s="1">
-        <v>1.1954805092242E-4</v>
+        <v>7.5285278361035795E-5</v>
       </c>
       <c r="J17" s="1">
-        <v>1.2363793026638499E-5</v>
+        <v>1.2061934531863201E-5</v>
       </c>
       <c r="K17">
-        <v>5.1946721553851799E-2</v>
+        <v>-0.36788934191894301</v>
       </c>
       <c r="L17">
-        <v>0.654745541459134</v>
+        <v>-0.15668108342846401</v>
       </c>
       <c r="M17">
-        <v>-0.27843989785882101</v>
+        <v>-0.304694628692537</v>
       </c>
       <c r="N17">
-        <v>0.14275078838472099</v>
+        <v>-0.27642168467998102</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="0"/>
-        <v>0.99658765803730398</v>
+        <v>1.3488261330895908</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="1"/>
-        <v>8.3648373376571747</v>
+        <v>13.282809358881963</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="2"/>
-        <v>1.23637930266385E-2</v>
+        <v>1.2061934531863201E-2</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1446901984.06162</v>
+        <v>6242914284.4530001</v>
       </c>
       <c r="D18">
-        <v>3556593738</v>
+        <v>11869029000</v>
       </c>
       <c r="E18">
-        <v>176029917.81</v>
+        <v>93322000</v>
       </c>
       <c r="F18">
-        <v>39802356</v>
+        <v>178907850</v>
       </c>
       <c r="G18">
-        <v>2600003565250</v>
+        <v>10054621170000</v>
       </c>
       <c r="H18">
-        <v>1.36791879270289E-3</v>
+        <v>1.18045511604292E-3</v>
       </c>
       <c r="I18" s="1">
-        <v>6.7703721703579303E-5</v>
+        <v>9.2815033428056999E-6</v>
       </c>
       <c r="J18" s="1">
-        <v>1.5308577469651598E-5</v>
+        <v>1.7793594306049801E-5</v>
       </c>
       <c r="K18">
-        <v>0.63593714112663402</v>
+        <v>0.33558443057725401</v>
       </c>
       <c r="L18">
-        <v>-0.29566643328250902</v>
+        <v>-1.3666644914630299</v>
       </c>
       <c r="M18">
-        <v>-2.2311532241030801E-2</v>
+        <v>0.193827649813367</v>
       </c>
       <c r="N18">
-        <v>0.105986391867697</v>
+        <v>-0.27908413702413698</v>
       </c>
       <c r="O18" s="3">
         <f t="shared" si="0"/>
-        <v>0.73103754794104836</v>
+        <v>0.84713089588036572</v>
       </c>
       <c r="P18" s="3">
         <f t="shared" si="1"/>
-        <v>14.770236773366817</v>
+        <v>107.74116682025679</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="2"/>
-        <v>1.5308577469651599E-2</v>
+        <v>1.7793594306049799E-2</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>3278187251.22824</v>
+        <v>5085768212.5412703</v>
       </c>
       <c r="D19">
-        <v>4579168000</v>
+        <v>11809888000</v>
       </c>
       <c r="E19">
-        <v>414338000</v>
+        <v>244627000</v>
       </c>
       <c r="F19">
-        <v>109152840</v>
+        <v>65153857</v>
       </c>
       <c r="G19">
-        <v>5130183491750</v>
+        <v>8265802191800</v>
       </c>
       <c r="H19">
-        <v>8.9259341451702304E-4</v>
+        <v>1.4287648949204001E-3</v>
       </c>
       <c r="I19" s="1">
-        <v>8.0764752501798207E-5</v>
+        <v>2.95950706687222E-5</v>
       </c>
       <c r="J19" s="1">
-        <v>2.12765956959496E-5</v>
+        <v>7.8823392440524597E-6</v>
       </c>
       <c r="K19">
-        <v>-0.12562514269643399</v>
+        <v>0.73342424931209504</v>
       </c>
       <c r="L19">
-        <v>-5.6231180476006802E-2</v>
+        <v>-0.99427549680987304</v>
       </c>
       <c r="M19">
-        <v>0.49676848324386003</v>
+        <v>-0.66822307389019697</v>
       </c>
       <c r="N19">
-        <v>0.104970720023806</v>
+        <v>-0.30969144046265801</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="0"/>
-        <v>1.1203309185751658</v>
+        <v>0.69990521432549091</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="1"/>
-        <v>12.381638883592633</v>
+        <v>33.789410783764687</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="2"/>
-        <v>2.1276595695949599E-2</v>
+        <v>7.8823392440524592E-3</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>6894299567.0630398</v>
+        <v>6760564800</v>
       </c>
       <c r="D20">
-        <v>11122258000</v>
+        <v>15876810789</v>
       </c>
       <c r="E20">
-        <v>607798000</v>
+        <v>593141429</v>
       </c>
       <c r="F20">
-        <v>122424900</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>8329466675200</v>
+        <v>10488000000000</v>
       </c>
       <c r="H20">
-        <v>1.3352905334401699E-3</v>
+        <v>1.51380728346681E-3</v>
       </c>
       <c r="I20" s="1">
-        <v>7.2969617827951206E-5</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1.46978077677536E-5</v>
+        <v>5.6554293382913803E-5</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.583660421259242</v>
+        <v>0.86967844194611199</v>
       </c>
       <c r="L20">
-        <v>-0.199131849659621</v>
+        <v>-0.50005812562662</v>
       </c>
       <c r="M20">
-        <v>-7.5434417308949606E-2</v>
+        <v>-1.3538048904520901</v>
       </c>
       <c r="N20">
-        <v>0.103031384763557</v>
+        <v>-0.32806152471086603</v>
       </c>
       <c r="O20" s="3">
         <f t="shared" si="0"/>
-        <v>0.74890068861916848</v>
+        <v>0.6605860672765913</v>
       </c>
       <c r="P20" s="3">
         <f t="shared" si="1"/>
-        <v>13.704333800374481</v>
+        <v>17.682123499082039</v>
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="2"/>
-        <v>1.4697807767753601E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>1699965015.46049</v>
+        <v>5248769069.0880003</v>
       </c>
       <c r="D21">
-        <v>3557258380</v>
+        <v>10949600986</v>
       </c>
       <c r="E21">
-        <v>306114008</v>
+        <v>-27972524</v>
       </c>
       <c r="F21">
-        <v>15953830</v>
+        <v>68728639</v>
       </c>
       <c r="G21">
-        <v>2773189258500</v>
+        <v>6680833573600</v>
       </c>
       <c r="H21">
-        <v>1.2827319192502901E-3</v>
+        <v>1.6389573045597801E-3</v>
       </c>
       <c r="I21" s="1">
-        <v>1.1038338153868901E-4</v>
+        <v>-4.1869811142334497E-6</v>
       </c>
       <c r="J21" s="1">
-        <v>5.7528817952472901E-6</v>
+        <v>1.02874346805446E-5</v>
       </c>
       <c r="K21">
-        <v>0.499451456003081</v>
+        <v>1.0701927427979301</v>
       </c>
       <c r="L21">
-        <v>0.48673851623407499</v>
+        <v>-1.6135691983511999</v>
       </c>
       <c r="M21">
-        <v>-0.85343678530773903</v>
+        <v>-0.45903521134048098</v>
       </c>
       <c r="N21">
-        <v>4.42510623098058E-2</v>
+        <v>-0.33413722229791698</v>
       </c>
       <c r="O21" s="3">
         <f t="shared" si="0"/>
-        <v>0.77958612005575056</v>
+        <v>0.61014402096862286</v>
       </c>
       <c r="P21" s="3">
         <f t="shared" si="1"/>
-        <v>9.0593347119874501</v>
+        <v>-238.83556498512641</v>
       </c>
       <c r="Q21" s="3">
         <f t="shared" si="2"/>
-        <v>5.7528817952472904E-3</v>
+        <v>1.02874346805446E-2</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>4570798500.7449999</v>
+        <v>3973678566</v>
       </c>
       <c r="D22">
-        <v>8207779513</v>
+        <v>5192604414</v>
       </c>
       <c r="E22">
-        <v>1428690978.3099999</v>
+        <v>513539928.33999997</v>
       </c>
       <c r="F22">
-        <v>84230078</v>
+        <v>150231040</v>
       </c>
       <c r="G22">
-        <v>10214074862000</v>
+        <v>9076470000000</v>
       </c>
       <c r="H22">
-        <v>8.0357542155245598E-4</v>
+        <v>5.7209514425762397E-4</v>
       </c>
       <c r="I22" s="1">
-        <v>1.3987473144780199E-4</v>
+        <v>5.6579256951215603E-5</v>
       </c>
       <c r="J22" s="1">
-        <v>8.2464715735896805E-6</v>
+        <v>1.6551703470622301E-5</v>
       </c>
       <c r="K22">
-        <v>-0.26824901496300602</v>
+        <v>-0.63912474920102702</v>
       </c>
       <c r="L22">
-        <v>1.0273749277228501</v>
+        <v>-0.49960049265877599</v>
       </c>
       <c r="M22">
-        <v>-0.63655195492111505</v>
+        <v>8.5811774251257106E-2</v>
       </c>
       <c r="N22">
-        <v>4.0857985946245401E-2</v>
+        <v>-0.35097115586951499</v>
       </c>
       <c r="O22" s="3">
         <f t="shared" si="0"/>
-        <v>1.2444382607771456</v>
+        <v>1.747960999210445</v>
       </c>
       <c r="P22" s="3">
         <f t="shared" si="1"/>
-        <v>7.1492541193773578</v>
+        <v>17.674321896136444</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" si="2"/>
-        <v>8.246471573589681E-3</v>
+        <v>1.6551703470622302E-2</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>946953005.73039997</v>
+        <v>4814882504.3289604</v>
       </c>
       <c r="D23">
-        <v>1759087683</v>
+        <v>1128646599</v>
       </c>
       <c r="E23">
-        <v>209984460</v>
+        <v>256131699.78999999</v>
       </c>
       <c r="F23">
-        <v>23130500</v>
+        <v>208032045</v>
       </c>
       <c r="G23">
-        <v>1909949588000</v>
+        <v>7357705538400</v>
       </c>
       <c r="H23">
-        <v>9.2101262465362995E-4</v>
+        <v>1.53396543679218E-4</v>
       </c>
       <c r="I23" s="1">
-        <v>1.0994240964228E-4</v>
+        <v>3.4811355041764498E-5</v>
       </c>
       <c r="J23" s="1">
-        <v>1.2110529065964E-5</v>
+        <v>2.8274037866054399E-5</v>
       </c>
       <c r="K23">
-        <v>-8.0092125589953406E-2</v>
+        <v>-1.3099600908926401</v>
       </c>
       <c r="L23">
-        <v>0.47865460470148202</v>
+        <v>-0.89865039746929698</v>
       </c>
       <c r="M23">
-        <v>-0.3004680243899</v>
+        <v>1.1053846523445501</v>
       </c>
       <c r="N23">
-        <v>3.26981515738759E-2</v>
+        <v>-0.36774194533912902</v>
       </c>
       <c r="O23" s="3">
         <f t="shared" si="0"/>
-        <v>1.0857614469465879</v>
+        <v>6.5190517075221361</v>
       </c>
       <c r="P23" s="3">
         <f t="shared" si="1"/>
-        <v>9.0956711177579557</v>
+        <v>28.72625896924329</v>
       </c>
       <c r="Q23" s="3">
         <f t="shared" si="2"/>
-        <v>1.2110529065964E-2</v>
+        <v>2.82740378660544E-2</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
@@ -2014,7 +2037,7 @@
         <v>8</v>
       </c>
       <c r="J26" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K26" t="s">
         <v>9</v>
@@ -2040,7 +2063,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -2089,14 +2112,14 @@
         <f>1/I27/1000</f>
         <v>9.7231660202375121</v>
       </c>
-      <c r="Q27" s="2">
-        <f>1/J27*1000</f>
-        <v>103023257.43775493</v>
+      <c r="Q27" s="3">
+        <f>J27*1000</f>
+        <v>9.7065461224052699E-3</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -2145,14 +2168,14 @@
         <f t="shared" ref="P28:P47" si="4">1/I28/1000</f>
         <v>9.7969434925417431</v>
       </c>
-      <c r="Q28" s="2">
-        <f t="shared" ref="Q28:Q47" si="5">1/J28*1000</f>
-        <v>57038762.262255386</v>
+      <c r="Q28" s="3">
+        <f t="shared" ref="Q28:Q47" si="5">J28*1000</f>
+        <v>1.75319372359827E-2</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -2201,14 +2224,14 @@
         <f t="shared" si="4"/>
         <v>18.394548421314692</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q29" s="3">
         <f t="shared" si="5"/>
-        <v>52449561.449675769</v>
+        <v>1.9065936346474098E-2</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -2257,14 +2280,14 @@
         <f t="shared" si="4"/>
         <v>-3.3369350859918159</v>
       </c>
-      <c r="Q30" s="2" t="e">
+      <c r="Q30" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -2313,14 +2336,14 @@
         <f t="shared" si="4"/>
         <v>9.8730856158429745</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="3">
         <f t="shared" si="5"/>
-        <v>53993162.951950178</v>
+        <v>1.8520863482102801E-2</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -2369,14 +2392,14 @@
         <f t="shared" si="4"/>
         <v>4.5347843914793708</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="Q32" s="3">
         <f t="shared" si="5"/>
-        <v>102354856.99335353</v>
+        <v>9.7699320713714195E-3</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -2425,14 +2448,14 @@
         <f t="shared" si="4"/>
         <v>84.474934430436065</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q33" s="3">
         <f t="shared" si="5"/>
-        <v>67204971.014269993</v>
+        <v>1.4879851667336701E-2</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -2481,14 +2504,14 @@
         <f t="shared" si="4"/>
         <v>8.813333663028418</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q34" s="3">
         <f t="shared" si="5"/>
-        <v>89916323.448377803</v>
+        <v>1.11214511631374E-2</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -2537,14 +2560,14 @@
         <f t="shared" si="4"/>
         <v>7.9052775910201971</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="Q35" s="3">
         <f t="shared" si="5"/>
-        <v>75562443.755624592</v>
+        <v>1.3234087600899799E-2</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -2593,14 +2616,14 @@
         <f t="shared" si="4"/>
         <v>3.3183412478877017</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="Q36" s="3">
         <f t="shared" si="5"/>
-        <v>77421690.813965037</v>
+        <v>1.29162769436653E-2</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B37" s="3">
         <v>2</v>
@@ -2649,14 +2672,14 @@
         <f>1/I37/1000</f>
         <v>8.3557249081272023</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="Q37" s="3">
         <f t="shared" si="5"/>
-        <v>107835326.91130692</v>
+        <v>9.27339888181993E-3</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -2705,14 +2728,14 @@
         <f t="shared" si="4"/>
         <v>11.301693612874578</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="Q38" s="3">
         <f t="shared" si="5"/>
-        <v>48555460.843537815</v>
+        <v>2.05950058474852E-2</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -2753,14 +2776,14 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="Q39" s="3">
         <f t="shared" si="5"/>
-        <v>77605504.851678073</v>
+        <v>1.28856838430628E-2</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -2809,14 +2832,14 @@
         <f t="shared" si="4"/>
         <v>103.93028919807415</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="Q40" s="3">
         <f t="shared" si="5"/>
-        <v>115199991.76532327</v>
+        <v>8.680556176055329E-3</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -2865,14 +2888,14 @@
         <f t="shared" si="4"/>
         <v>15.456086043849048</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="Q41" s="3">
         <f t="shared" si="5"/>
-        <v>29663056.425635234</v>
+        <v>3.3711967696484095E-2</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -2921,14 +2944,14 @@
         <f t="shared" si="4"/>
         <v>8.3913661531986676</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="Q42" s="3">
         <f t="shared" si="5"/>
-        <v>67728290.733175129</v>
+        <v>1.4764878740844601E-2</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -2977,14 +3000,14 @@
         <f t="shared" si="4"/>
         <v>15.266115022393649</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="Q43" s="3">
         <f t="shared" si="5"/>
-        <v>42966710.892825149</v>
+        <v>2.32738317460317E-2</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -3033,14 +3056,14 @@
         <f t="shared" si="4"/>
         <v>7.0398111103318639</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="Q44" s="3">
         <f t="shared" si="5"/>
-        <v>50187985.965679929</v>
+        <v>1.9925087264586198E-2</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -3089,14 +3112,14 @@
         <f t="shared" si="4"/>
         <v>-14.67576077253057</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="Q45" s="3">
         <f t="shared" si="5"/>
-        <v>63714958.775029793</v>
+        <v>1.56949014678152E-2</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -3145,14 +3168,14 @@
         <f t="shared" si="4"/>
         <v>-17.287309700776376</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="Q46" s="3">
         <f t="shared" si="5"/>
-        <v>44404113.394338094</v>
+        <v>2.2520436138862499E-2</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -3201,14 +3224,14 @@
         <f t="shared" si="4"/>
         <v>5.9340963530565842</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="Q47" s="3">
         <f t="shared" si="5"/>
-        <v>72384335.758937344</v>
+        <v>1.3815143698082901E-2</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.4">
@@ -3240,7 +3263,7 @@
         <v>8</v>
       </c>
       <c r="J50" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K50" t="s">
         <v>9</v>
@@ -3266,7 +3289,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -3315,14 +3338,14 @@
         <f>1/I51/1000</f>
         <v>6.5057410157675504</v>
       </c>
-      <c r="Q51" s="2" t="e">
-        <f>1/J51*1000</f>
-        <v>#DIV/0!</v>
+      <c r="Q51" s="3">
+        <f>J51*1000</f>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -3364,21 +3387,21 @@
         <v>0.425009687723437</v>
       </c>
       <c r="O52" s="3">
-        <f t="shared" ref="O52:O71" si="6">1/H52/1000</f>
+        <f t="shared" ref="O52:O60" si="6">1/H52/1000</f>
         <v>1.0431582816499902</v>
       </c>
       <c r="P52" s="3">
-        <f t="shared" ref="P52:P71" si="7">1/I52/1000</f>
+        <f t="shared" ref="P52:P60" si="7">1/I52/1000</f>
         <v>11.549640803464989</v>
       </c>
-      <c r="Q52" s="2">
-        <f t="shared" ref="Q52:Q71" si="8">1/J52*1000</f>
-        <v>42370073.076625362</v>
+      <c r="Q52" s="3">
+        <f t="shared" ref="Q52:Q71" si="8">J52*1000</f>
+        <v>2.3601564202910898E-2</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -3427,14 +3450,14 @@
         <f t="shared" si="7"/>
         <v>6.7528639248303133</v>
       </c>
-      <c r="Q53" s="2" t="e">
+      <c r="Q53" s="3">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -3475,14 +3498,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="Q54" s="3">
         <f t="shared" si="8"/>
-        <v>56480000.000000082</v>
+        <v>1.7705382436260599E-2</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -3531,14 +3554,14 @@
         <f t="shared" si="7"/>
         <v>6.0726622199330151</v>
       </c>
-      <c r="Q55" s="2" t="e">
+      <c r="Q55" s="3">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -3587,14 +3610,14 @@
         <f t="shared" si="7"/>
         <v>15.568219447114478</v>
       </c>
-      <c r="Q56" s="2">
+      <c r="Q56" s="3">
         <f t="shared" si="8"/>
-        <v>119072439.83040282</v>
+        <v>8.3982490106385612E-3</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -3643,14 +3666,14 @@
         <f t="shared" si="7"/>
         <v>9.2315156602455026</v>
       </c>
-      <c r="Q57" s="2">
+      <c r="Q57" s="3">
         <f t="shared" si="8"/>
-        <v>32899408.28402368</v>
+        <v>3.0395683453237402E-2</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -3699,14 +3722,14 @@
         <f t="shared" si="7"/>
         <v>8.2713427936472019</v>
       </c>
-      <c r="Q58" s="2">
+      <c r="Q58" s="3">
         <f t="shared" si="8"/>
-        <v>48906401.062417224</v>
+        <v>2.0447221187339899E-2</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -3755,14 +3778,14 @@
         <f t="shared" si="7"/>
         <v>7.6109850682671381</v>
       </c>
-      <c r="Q59" s="2">
+      <c r="Q59" s="3">
         <f t="shared" si="8"/>
-        <v>45927495.69844687</v>
+        <v>2.17734493203342E-2</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -3811,14 +3834,14 @@
         <f t="shared" si="7"/>
         <v>-22.893084887182244</v>
       </c>
-      <c r="Q60" s="2" t="e">
+      <c r="Q60" s="3">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B61" s="2">
         <v>3</v>
@@ -3867,14 +3890,14 @@
         <f t="shared" ref="P61" si="10">1/I61/1000</f>
         <v>13.142357024693169</v>
       </c>
-      <c r="Q61" s="2">
-        <f t="shared" ref="Q61" si="11">1/J61*1000</f>
-        <v>43595719.240425676</v>
+      <c r="Q61" s="3">
+        <f t="shared" si="8"/>
+        <v>2.2938031931188201E-2</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -3916,21 +3939,21 @@
         <v>0.390093407036045</v>
       </c>
       <c r="O62" s="3">
-        <f t="shared" ref="O62:O71" si="12">1/H62/1000</f>
+        <f t="shared" ref="O62:O71" si="11">1/H62/1000</f>
         <v>0.73624327635015341</v>
       </c>
       <c r="P62" s="3">
-        <f t="shared" ref="P62:P71" si="13">1/I62/1000</f>
+        <f t="shared" ref="P62:P71" si="12">1/I62/1000</f>
         <v>37.019380843357865</v>
       </c>
-      <c r="Q62" s="2">
+      <c r="Q62" s="3">
         <f t="shared" si="8"/>
-        <v>54206586.55101417</v>
+        <v>1.8447942651007802E-2</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -3972,21 +3995,21 @@
         <v>0.389104455779129</v>
       </c>
       <c r="O63" s="3">
+        <f t="shared" si="11"/>
+        <v>0.64058864577240038</v>
+      </c>
+      <c r="P63" s="3">
         <f t="shared" si="12"/>
-        <v>0.64058864577240038</v>
-      </c>
-      <c r="P63" s="3">
-        <f t="shared" si="13"/>
         <v>3.6679133504448922</v>
       </c>
-      <c r="Q63" s="2">
+      <c r="Q63" s="3">
         <f t="shared" si="8"/>
-        <v>122333333.33333343</v>
+        <v>8.1743869209809205E-3</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -4028,21 +4051,21 @@
         <v>0.38811297281465601</v>
       </c>
       <c r="O64" s="3">
+        <f t="shared" si="11"/>
+        <v>0.84021605797962062</v>
+      </c>
+      <c r="P64" s="3">
         <f t="shared" si="12"/>
-        <v>0.84021605797962062</v>
-      </c>
-      <c r="P64" s="3">
-        <f t="shared" si="13"/>
         <v>9.3367649028774231</v>
       </c>
-      <c r="Q64" s="2">
+      <c r="Q64" s="3">
         <f t="shared" si="8"/>
-        <v>54397487.312508844</v>
+        <v>1.8383202044886502E-2</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -4084,21 +4107,21 @@
         <v>0.37835354741569799</v>
       </c>
       <c r="O65" s="3">
+        <f t="shared" si="11"/>
+        <v>0.62182581953718263</v>
+      </c>
+      <c r="P65" s="3">
         <f t="shared" si="12"/>
-        <v>0.62182581953718263</v>
-      </c>
-      <c r="P65" s="3">
-        <f t="shared" si="13"/>
         <v>84.900064080359599</v>
       </c>
-      <c r="Q65" s="2">
+      <c r="Q65" s="3">
         <f t="shared" si="8"/>
-        <v>67014666.081324004</v>
+        <v>1.49221067338674E-2</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -4140,21 +4163,21 @@
         <v>0.369700967717212</v>
       </c>
       <c r="O66" s="3">
+        <f t="shared" si="11"/>
+        <v>0.69757390113384654</v>
+      </c>
+      <c r="P66" s="3">
         <f t="shared" si="12"/>
-        <v>0.69757390113384654</v>
-      </c>
-      <c r="P66" s="3">
-        <f t="shared" si="13"/>
         <v>11.879116383787904</v>
       </c>
-      <c r="Q66" s="2">
+      <c r="Q66" s="3">
         <f t="shared" si="8"/>
-        <v>66908606.6029348</v>
+        <v>1.4945760355382099E-2</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -4196,21 +4219,21 @@
         <v>0.36854909437591898</v>
       </c>
       <c r="O67" s="3">
+        <f t="shared" si="11"/>
+        <v>0.57143600782898929</v>
+      </c>
+      <c r="P67" s="3">
         <f t="shared" si="12"/>
-        <v>0.57143600782898929</v>
-      </c>
-      <c r="P67" s="3">
-        <f t="shared" si="13"/>
         <v>20.538167923024982</v>
       </c>
-      <c r="Q67" s="2">
+      <c r="Q67" s="3">
         <f t="shared" si="8"/>
-        <v>87345188.105410531</v>
+        <v>1.1448827596469001E-2</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -4252,21 +4275,21 @@
         <v>0.365808939505395</v>
       </c>
       <c r="O68" s="3">
+        <f t="shared" si="11"/>
+        <v>1.2101463916448865</v>
+      </c>
+      <c r="P68" s="3">
         <f t="shared" si="12"/>
-        <v>1.2101463916448865</v>
-      </c>
-      <c r="P68" s="3">
-        <f t="shared" si="13"/>
         <v>8.1193568481484366</v>
       </c>
-      <c r="Q68" s="2">
+      <c r="Q68" s="3">
         <f t="shared" si="8"/>
-        <v>44819801.649637498</v>
+        <v>2.2311566834167101E-2</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -4308,21 +4331,21 @@
         <v>0.35921653573371598</v>
       </c>
       <c r="O69" s="3">
+        <f t="shared" si="11"/>
+        <v>1.5446767989000698</v>
+      </c>
+      <c r="P69" s="3">
         <f t="shared" si="12"/>
-        <v>1.5446767989000698</v>
-      </c>
-      <c r="P69" s="3">
-        <f t="shared" si="13"/>
         <v>22.812301886021139</v>
       </c>
-      <c r="Q69" s="2">
+      <c r="Q69" s="3">
         <f t="shared" si="8"/>
-        <v>37028985.507246487</v>
+        <v>2.7005870841487197E-2</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -4364,21 +4387,21 @@
         <v>0.35846010808744799</v>
       </c>
       <c r="O70" s="3">
+        <f t="shared" si="11"/>
+        <v>0.85937021456514806</v>
+      </c>
+      <c r="P70" s="3">
         <f t="shared" si="12"/>
-        <v>0.85937021456514806</v>
-      </c>
-      <c r="P70" s="3">
-        <f t="shared" si="13"/>
         <v>11.956700519466878</v>
       </c>
-      <c r="Q70" s="2">
+      <c r="Q70" s="3">
         <f t="shared" si="8"/>
-        <v>54290953.601473108</v>
+        <v>1.8419274918996198E-2</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -4420,21 +4443,21 @@
         <v>0.35111191245110401</v>
       </c>
       <c r="O71" s="3">
+        <f t="shared" si="11"/>
+        <v>1.7995538669726605</v>
+      </c>
+      <c r="P71" s="3">
         <f t="shared" si="12"/>
-        <v>1.7995538669726605</v>
-      </c>
-      <c r="P71" s="3">
-        <f t="shared" si="13"/>
         <v>-59.563494432639601</v>
       </c>
-      <c r="Q71" s="2">
+      <c r="Q71" s="3">
         <f t="shared" si="8"/>
-        <v>33509896.57523245</v>
+        <v>2.9841930360928401E-2</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.4">
@@ -4466,7 +4489,7 @@
         <v>8</v>
       </c>
       <c r="J74" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K74" t="s">
         <v>9</v>
@@ -4498,52 +4521,52 @@
         <v>13</v>
       </c>
       <c r="C75">
-        <v>5469404925.6000004</v>
+        <v>4722068187.5</v>
       </c>
       <c r="D75">
-        <v>63594908</v>
+        <v>75241524</v>
       </c>
       <c r="E75">
-        <v>5217886.79</v>
+        <v>-6259541.6299999999</v>
       </c>
       <c r="F75">
-        <v>1219680</v>
+        <v>1626620</v>
       </c>
       <c r="G75">
-        <v>107941680000</v>
+        <v>83208250000</v>
       </c>
       <c r="H75">
-        <v>5.8915988707976296E-4</v>
+        <v>9.0425557561900404E-4</v>
       </c>
       <c r="I75" s="1">
-        <v>4.8339870103930101E-5</v>
+        <v>-7.5227415911282794E-5</v>
       </c>
       <c r="J75" s="1">
-        <v>1.1299435028248499E-5</v>
+        <v>1.9548782722867E-5</v>
       </c>
       <c r="K75">
-        <v>0.29467288924644103</v>
+        <v>1.0611015749858199</v>
       </c>
       <c r="L75">
-        <v>0.195090493432856</v>
+        <v>-0.46534715208661798</v>
       </c>
       <c r="M75">
-        <v>0.82282688736647303</v>
+        <v>1.8143625645869099</v>
       </c>
       <c r="N75">
-        <v>0.437530090015257</v>
+        <v>0.80337232916203805</v>
       </c>
       <c r="O75" s="3">
         <f>1/H75/1000</f>
-        <v>1.6973321197351234</v>
+        <v>1.1058820392845845</v>
       </c>
       <c r="P75" s="3">
         <f>1/I75/1000</f>
-        <v>20.686857408801739</v>
-      </c>
-      <c r="Q75" s="2">
-        <f>1/J75*1000</f>
-        <v>88500000.000000685</v>
+        <v>-13.293026058203569</v>
+      </c>
+      <c r="Q75" s="3">
+        <f>J75*1000</f>
+        <v>1.9548782722867E-2</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.4">
@@ -4554,52 +4577,44 @@
         <v>13</v>
       </c>
       <c r="C76">
-        <v>12226060891.5984</v>
+        <v>1206665100</v>
       </c>
       <c r="D76">
-        <v>130848653</v>
-      </c>
-      <c r="E76">
-        <v>14974629</v>
+        <v>17269094.989999998</v>
       </c>
       <c r="F76">
-        <v>1070860</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>172855378080</v>
+        <v>12858750000</v>
       </c>
       <c r="H76">
-        <v>7.5698340690008104E-4</v>
-      </c>
-      <c r="I76" s="1">
-        <v>8.6630969578912996E-5</v>
-      </c>
+        <v>1.3429839595606101E-3</v>
+      </c>
+      <c r="I76" s="1"/>
       <c r="J76" s="1">
-        <v>6.1951211000469401E-6</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>0.70288145702576399</v>
-      </c>
-      <c r="L76">
-        <v>0.39974727919811298</v>
+        <v>2.1282504790529502</v>
       </c>
       <c r="M76">
-        <v>0.209310576149915</v>
+        <v>-0.53531600801078305</v>
       </c>
       <c r="N76">
-        <v>0.43731310412459701</v>
+        <v>0.796467235521085</v>
       </c>
       <c r="O76" s="3">
-        <f t="shared" ref="O76:O95" si="14">1/H76/1000</f>
-        <v>1.3210329194600117</v>
-      </c>
-      <c r="P76" s="3">
-        <f t="shared" ref="P76:P95" si="15">1/I76/1000</f>
-        <v>11.543216067656846</v>
-      </c>
-      <c r="Q76" s="2">
-        <f t="shared" ref="Q76:Q95" si="16">1/J76*1000</f>
-        <v>161417345.01242003</v>
+        <f t="shared" ref="O76:O95" si="13">1/H76/1000</f>
+        <v>0.7446105315562922</v>
+      </c>
+      <c r="P76" s="3" t="e">
+        <f t="shared" ref="P76:P95" si="14">1/I76/1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q76" s="3">
+        <f t="shared" ref="Q76:Q95" si="15">J76*1000</f>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.4">
@@ -4610,52 +4625,52 @@
         <v>13</v>
       </c>
       <c r="C77">
-        <v>4285277975.3471999</v>
+        <v>1115191800</v>
       </c>
       <c r="D77">
-        <v>36214454</v>
+        <v>57593808</v>
       </c>
       <c r="E77">
-        <v>2883883.95</v>
+        <v>-51354.86</v>
       </c>
       <c r="F77">
-        <v>705397</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>61854474240</v>
+        <v>33948000000</v>
       </c>
       <c r="H77">
-        <v>5.8547832545605605E-4</v>
+        <v>1.69653022269353E-3</v>
       </c>
       <c r="I77" s="1">
-        <v>4.6623691906430402E-5</v>
+        <v>-1.5127506775067699E-6</v>
       </c>
       <c r="J77" s="1">
-        <v>1.14041386442475E-5</v>
+        <v>0</v>
       </c>
       <c r="K77">
-        <v>0.28571797637598201</v>
+        <v>2.98820511396789</v>
       </c>
       <c r="L77">
-        <v>0.185917930656742</v>
+        <v>-7.1359863725703798E-2</v>
       </c>
       <c r="M77">
-        <v>0.83541180615522903</v>
+        <v>-0.53531600801078305</v>
       </c>
       <c r="N77">
-        <v>0.43568257106265101</v>
+        <v>0.79384308074380205</v>
       </c>
       <c r="O77" s="3">
+        <f t="shared" si="13"/>
+        <v>0.58943836462419752</v>
+      </c>
+      <c r="P77" s="3">
         <f t="shared" si="14"/>
-        <v>1.708005158382343</v>
-      </c>
-      <c r="P77" s="3">
+        <v>-661.04746464112861</v>
+      </c>
+      <c r="Q77" s="3">
         <f t="shared" si="15"/>
-        <v>21.448322925754379</v>
-      </c>
-      <c r="Q77" s="2">
-        <f t="shared" si="16"/>
-        <v>87687464.278981045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.4">
@@ -4666,52 +4681,52 @@
         <v>13</v>
       </c>
       <c r="C78">
-        <v>44108446517.849998</v>
+        <v>3125740839.21</v>
       </c>
       <c r="D78">
-        <v>185815646</v>
+        <v>39429339</v>
       </c>
       <c r="E78">
-        <v>33148983</v>
+        <v>2197837.41</v>
       </c>
       <c r="F78">
-        <v>12086336</v>
+        <v>542839</v>
       </c>
       <c r="G78">
-        <v>684382413000</v>
+        <v>42097519720</v>
       </c>
       <c r="H78">
-        <v>2.71508505289425E-4</v>
+        <v>9.3661905172212796E-4</v>
       </c>
       <c r="I78" s="1">
-        <v>4.8436345485108101E-5</v>
+        <v>5.2208239930007901E-5</v>
       </c>
       <c r="J78" s="1">
-        <v>1.7660208343197099E-5</v>
+        <v>1.2894797689045399E-5</v>
       </c>
       <c r="K78">
-        <v>-0.47797218310449002</v>
+        <v>1.1398214602710399</v>
       </c>
       <c r="L78">
-        <v>0.19560613131445501</v>
+        <v>0.21576600668819099</v>
       </c>
       <c r="M78">
-        <v>1.5873641465485</v>
+        <v>1.01458253336953</v>
       </c>
       <c r="N78">
-        <v>0.43499936491948998</v>
+        <v>0.79005666677625397</v>
       </c>
       <c r="O78" s="3">
+        <f t="shared" si="13"/>
+        <v>1.0676699327878669</v>
+      </c>
+      <c r="P78" s="3">
         <f t="shared" si="14"/>
-        <v>3.6831258708967929</v>
-      </c>
-      <c r="P78" s="3">
+        <v>19.154064594796399</v>
+      </c>
+      <c r="Q78" s="3">
         <f t="shared" si="15"/>
-        <v>20.645653382488426</v>
-      </c>
-      <c r="Q78" s="2">
-        <f t="shared" si="16"/>
-        <v>56624473.537720792</v>
+        <v>1.28947976890454E-2</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.4">
@@ -4722,52 +4737,52 @@
         <v>13</v>
       </c>
       <c r="C79">
-        <v>11410463792.976</v>
+        <v>3999458874.4809999</v>
       </c>
       <c r="D79">
-        <v>158318752</v>
+        <v>59027449</v>
       </c>
       <c r="E79">
-        <v>15567477.369999999</v>
+        <v>7219130.1900000004</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>660676</v>
       </c>
       <c r="G79">
-        <v>153945814800</v>
+        <v>63777051100</v>
       </c>
       <c r="H79">
-        <v>1.0284056907014999E-3</v>
+        <v>9.2552803840753302E-4</v>
       </c>
       <c r="I79" s="1">
-        <v>1.01123095747842E-4</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
+        <v>1.13193226489582E-4</v>
+      </c>
+      <c r="J79" s="1">
+        <v>1.03591493900225E-5</v>
       </c>
       <c r="K79">
-        <v>1.3630803484123699</v>
+        <v>1.1128440338339101</v>
       </c>
       <c r="L79">
-        <v>0.47720423398144002</v>
+        <v>0.54171620139007903</v>
       </c>
       <c r="M79">
-        <v>-0.53531600801078305</v>
+        <v>0.70980864742886596</v>
       </c>
       <c r="N79">
-        <v>0.434989524794343</v>
+        <v>0.78812296088428602</v>
       </c>
       <c r="O79" s="3">
+        <f t="shared" si="13"/>
+        <v>1.0804642955178363</v>
+      </c>
+      <c r="P79" s="3">
         <f t="shared" si="14"/>
-        <v>0.97237890556388917</v>
-      </c>
-      <c r="P79" s="3">
+        <v>8.8344508855575157</v>
+      </c>
+      <c r="Q79" s="3">
         <f t="shared" si="15"/>
-        <v>9.8889377605050264</v>
-      </c>
-      <c r="Q79" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>1.03591493900225E-2</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.4">
@@ -4778,52 +4793,52 @@
         <v>13</v>
       </c>
       <c r="C80">
-        <v>5040141863.8559999</v>
+        <v>11552933671.681999</v>
       </c>
       <c r="D80">
-        <v>53105389</v>
+        <v>78973084</v>
       </c>
       <c r="E80">
-        <v>-1844470.14</v>
+        <v>5046357.0999999996</v>
       </c>
       <c r="F80">
-        <v>735622</v>
+        <v>4330629</v>
       </c>
       <c r="G80">
-        <v>68405834200</v>
+        <v>180345514700</v>
       </c>
       <c r="H80">
-        <v>7.7632835884632696E-4</v>
+        <v>4.3789879737996001E-4</v>
       </c>
       <c r="I80" s="1">
-        <v>-2.6963637847135501E-5</v>
+        <v>2.79816057992597E-5</v>
       </c>
       <c r="J80" s="1">
-        <v>1.0753790354331999E-5</v>
+        <v>2.4012956502987498E-5</v>
       </c>
       <c r="K80">
-        <v>0.74993550008356702</v>
+        <v>-7.3249752664571399E-2</v>
       </c>
       <c r="L80">
-        <v>-0.207388779960232</v>
+        <v>8.6280430690324206E-2</v>
       </c>
       <c r="M80">
-        <v>0.75724277316718103</v>
+        <v>2.3509368170201199</v>
       </c>
       <c r="N80">
-        <v>0.43326316443017199</v>
+        <v>0.78798916501529004</v>
       </c>
       <c r="O80" s="3">
+        <f t="shared" si="13"/>
+        <v>2.2836326703412042</v>
+      </c>
+      <c r="P80" s="3">
         <f t="shared" si="14"/>
-        <v>1.2881147372821253</v>
-      </c>
-      <c r="P80" s="3">
+        <v>35.73776312817818</v>
+      </c>
+      <c r="Q80" s="3">
         <f t="shared" si="15"/>
-        <v>-37.086983799043857</v>
-      </c>
-      <c r="Q80" s="2">
-        <f t="shared" si="16"/>
-        <v>92990468.202419922</v>
+        <v>2.4012956502987497E-2</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.4">
@@ -4834,52 +4849,52 @@
         <v>13</v>
       </c>
       <c r="C81">
-        <v>3933927785.4068799</v>
+        <v>5633591871.9919901</v>
       </c>
       <c r="D81">
-        <v>51811155</v>
+        <v>129054087</v>
       </c>
       <c r="E81">
-        <v>8568252.1899999995</v>
+        <v>5925916.0700000003</v>
       </c>
       <c r="F81">
-        <v>662922</v>
+        <v>923318</v>
       </c>
       <c r="G81">
-        <v>83088352600</v>
+        <v>111600472900</v>
       </c>
       <c r="H81">
-        <v>6.2356700281959796E-4</v>
+        <v>1.1563937288656401E-3</v>
       </c>
       <c r="I81" s="1">
-        <v>1.03122181652209E-4</v>
+        <v>5.3099381355757602E-5</v>
       </c>
       <c r="J81" s="1">
-        <v>7.9785190012300208E-6</v>
+        <v>8.2734237230996492E-6</v>
       </c>
       <c r="K81">
-        <v>0.37836365829128799</v>
+        <v>1.6743943633240199</v>
       </c>
       <c r="L81">
-        <v>0.48788887091445998</v>
+        <v>0.220528944873745</v>
       </c>
       <c r="M81">
-        <v>0.42366723938725698</v>
+        <v>0.45911350301186599</v>
       </c>
       <c r="N81">
-        <v>0.42997325619766802</v>
+        <v>0.78467893706987801</v>
       </c>
       <c r="O81" s="3">
+        <f t="shared" si="13"/>
+        <v>0.86475737029544952</v>
+      </c>
+      <c r="P81" s="3">
         <f t="shared" si="14"/>
-        <v>1.6036769031688267</v>
-      </c>
-      <c r="P81" s="3">
+        <v>18.83261112403844</v>
+      </c>
+      <c r="Q81" s="3">
         <f t="shared" si="15"/>
-        <v>9.6972347168973876</v>
-      </c>
-      <c r="Q81" s="2">
-        <f t="shared" si="16"/>
-        <v>125336544.2691599</v>
+        <v>8.2734237230996498E-3</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.4">
@@ -4890,52 +4905,52 @@
         <v>13</v>
       </c>
       <c r="C82">
-        <v>7068465600</v>
+        <v>3519455755.8639898</v>
       </c>
       <c r="D82">
-        <v>62036357</v>
+        <v>56330597</v>
       </c>
       <c r="E82">
-        <v>8749026.3699999992</v>
+        <v>11675811</v>
       </c>
       <c r="F82">
-        <v>1385000</v>
+        <v>1050574</v>
       </c>
       <c r="G82">
-        <v>120540000000</v>
+        <v>79715872160</v>
       </c>
       <c r="H82">
-        <v>5.1465370001659201E-4</v>
+        <v>7.0664217142273999E-4</v>
       </c>
       <c r="I82" s="1">
-        <v>7.2581934378629498E-5</v>
+        <v>1.4646783236047501E-4</v>
       </c>
       <c r="J82" s="1">
-        <v>1.1489961838393801E-5</v>
+        <v>1.3178981444139E-5</v>
       </c>
       <c r="K82">
-        <v>0.113446420249015</v>
+        <v>0.58043304421420705</v>
       </c>
       <c r="L82">
-        <v>0.32465853986662702</v>
+        <v>0.71956102638895003</v>
       </c>
       <c r="M82">
-        <v>0.84572738043810303</v>
+        <v>1.0487401834641701</v>
       </c>
       <c r="N82">
-        <v>0.427944113517915</v>
+        <v>0.78291141802244202</v>
       </c>
       <c r="O82" s="3">
+        <f t="shared" si="13"/>
+        <v>1.4151433928527346</v>
+      </c>
+      <c r="P82" s="3">
         <f t="shared" si="14"/>
-        <v>1.943054135174314</v>
-      </c>
-      <c r="P82" s="3">
+        <v>6.8274376966191408</v>
+      </c>
+      <c r="Q82" s="3">
         <f t="shared" si="15"/>
-        <v>13.777533053657947</v>
-      </c>
-      <c r="Q82" s="2">
-        <f t="shared" si="16"/>
-        <v>87032490.974729955</v>
+        <v>1.3178981444139001E-2</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.4">
@@ -4946,52 +4961,52 @@
         <v>13</v>
       </c>
       <c r="C83">
-        <v>14471757300</v>
+        <v>7178747107.6295996</v>
       </c>
       <c r="D83">
-        <v>182268112</v>
+        <v>87231501</v>
       </c>
       <c r="E83">
-        <v>9929520.2100000009</v>
+        <v>7157977.5099999998</v>
       </c>
       <c r="F83">
-        <v>3575000</v>
+        <v>2843517</v>
       </c>
       <c r="G83">
-        <v>306735000000</v>
+        <v>145289356560</v>
       </c>
       <c r="H83">
-        <v>5.9422013138376705E-4</v>
+        <v>6.0039842604696304E-4</v>
       </c>
       <c r="I83" s="1">
-        <v>3.2371657000342299E-5</v>
+        <v>4.9267046667964097E-5</v>
       </c>
       <c r="J83" s="1">
-        <v>1.1655011655011601E-5</v>
+        <v>1.95714061052071E-5</v>
       </c>
       <c r="K83">
-        <v>0.30698126582061003</v>
+        <v>0.322009152367632</v>
       </c>
       <c r="L83">
-        <v>0.10974420635823</v>
+        <v>0.20004603083015701</v>
       </c>
       <c r="M83">
-        <v>0.86556564980841499</v>
+        <v>1.81708179664743</v>
       </c>
       <c r="N83">
-        <v>0.42743037399575101</v>
+        <v>0.77971232661507395</v>
       </c>
       <c r="O83" s="3">
+        <f t="shared" si="13"/>
+        <v>1.6655606620823824</v>
+      </c>
+      <c r="P83" s="3">
         <f t="shared" si="14"/>
-        <v>1.6828780231179459</v>
-      </c>
-      <c r="P83" s="3">
+        <v>20.297543036007678</v>
+      </c>
+      <c r="Q83" s="3">
         <f t="shared" si="15"/>
-        <v>30.891220674598955</v>
-      </c>
-      <c r="Q83" s="2">
-        <f t="shared" si="16"/>
-        <v>85800000.000000387</v>
+        <v>1.95714061052071E-2</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.4">
@@ -5002,52 +5017,52 @@
         <v>13</v>
       </c>
       <c r="C84">
-        <v>2999049585.7379999</v>
+        <v>17425518499.7355</v>
       </c>
       <c r="D84">
-        <v>39025662</v>
+        <v>553583358</v>
       </c>
       <c r="E84">
-        <v>1254229.49</v>
+        <v>44014361.890000001</v>
       </c>
       <c r="F84">
-        <v>353917</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>48038596600</v>
+        <v>388096180395</v>
       </c>
       <c r="H84">
-        <v>8.1238139250720701E-4</v>
+        <v>1.42640764316868E-3</v>
       </c>
       <c r="I84" s="1">
-        <v>2.61087870747664E-5</v>
+        <v>1.1341096386262401E-4</v>
       </c>
       <c r="J84" s="1">
-        <v>7.3673467804844203E-6</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>0.83762974729375905</v>
+        <v>2.3311675817390798</v>
       </c>
       <c r="L84">
-        <v>7.6270661690972505E-2</v>
+        <v>0.54287995567028202</v>
       </c>
       <c r="M84">
-        <v>0.35020699935026101</v>
+        <v>-0.53531600801078305</v>
       </c>
       <c r="N84">
-        <v>0.42136913611166399</v>
+        <v>0.77957717646619396</v>
       </c>
       <c r="O84" s="3">
+        <f t="shared" si="13"/>
+        <v>0.70106186319820851</v>
+      </c>
+      <c r="P84" s="3">
         <f t="shared" si="14"/>
-        <v>1.2309489227882933</v>
-      </c>
-      <c r="P84" s="3">
+        <v>8.8174896495131758</v>
+      </c>
+      <c r="Q84" s="3">
         <f t="shared" si="15"/>
-        <v>38.301281370764222</v>
-      </c>
-      <c r="Q84" s="2">
-        <f t="shared" si="16"/>
-        <v>135734074.93847433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.4">
@@ -5058,52 +5073,52 @@
         <v>13</v>
       </c>
       <c r="C85" s="2">
-        <v>1942872500</v>
+        <v>3578924400</v>
       </c>
       <c r="D85" s="2">
-        <v>29924601</v>
+        <v>140380865</v>
       </c>
       <c r="E85" s="2">
-        <v>595900.02</v>
+        <v>20697501</v>
       </c>
       <c r="F85" s="2">
-        <v>234967</v>
+        <v>0</v>
       </c>
       <c r="G85" s="2">
-        <v>34750000000</v>
+        <v>110940000000</v>
       </c>
       <c r="H85" s="2">
-        <v>8.6113959712230204E-4</v>
+        <v>1.2653764647557199E-3</v>
       </c>
       <c r="I85" s="4">
-        <v>1.7148202014388401E-5</v>
+        <v>1.8656481882098401E-4</v>
       </c>
       <c r="J85" s="4">
-        <v>6.7616402877697801E-6</v>
+        <v>0</v>
       </c>
       <c r="K85" s="2">
-        <v>0.95622764641260105</v>
+        <v>1.93948048818896</v>
       </c>
       <c r="L85" s="2">
-        <v>2.83784736321975E-2</v>
+        <v>0.93386984698685704</v>
       </c>
       <c r="M85" s="2">
-        <v>0.27740371602612401</v>
+        <v>-0.53531600801078305</v>
       </c>
       <c r="N85" s="2">
-        <v>0.420669945356974</v>
+        <v>0.77934477572167904</v>
       </c>
       <c r="O85" s="3">
-        <f t="shared" ref="O85" si="17">1/H85/1000</f>
-        <v>1.1612519077530894</v>
+        <f t="shared" ref="O85" si="16">1/H85/1000</f>
+        <v>0.79027864659475022</v>
       </c>
       <c r="P85" s="3">
-        <f t="shared" ref="P85" si="18">1/I85/1000</f>
-        <v>58.315151592040856</v>
-      </c>
-      <c r="Q85" s="2">
-        <f t="shared" ref="Q85" si="19">1/J85*1000</f>
-        <v>147893108.39394477</v>
+        <f t="shared" ref="P85" si="17">1/I85/1000</f>
+        <v>5.3600673820477258</v>
+      </c>
+      <c r="Q85" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.4">
@@ -5114,52 +5129,52 @@
         <v>13</v>
       </c>
       <c r="C86">
-        <v>1351040769.2628</v>
+        <v>5085166240</v>
       </c>
       <c r="D86">
-        <v>32725315</v>
+        <v>75438049</v>
       </c>
       <c r="E86">
-        <v>2320658.59</v>
+        <v>2633338.59</v>
       </c>
       <c r="F86">
-        <v>400593</v>
+        <v>2064000</v>
       </c>
       <c r="G86">
-        <v>47151396380</v>
+        <v>109736000000</v>
       </c>
       <c r="H86">
-        <v>6.9404763193568796E-4</v>
+        <v>6.8745032623751502E-4</v>
       </c>
       <c r="I86" s="1">
-        <v>4.9217176333389398E-5</v>
+        <v>2.3997034610337499E-5</v>
       </c>
       <c r="J86" s="1">
-        <v>8.4958883671559194E-6</v>
+        <v>1.8808777429467001E-5</v>
       </c>
       <c r="K86">
-        <v>0.54979848875169401</v>
+        <v>0.53375141315027097</v>
       </c>
       <c r="L86">
-        <v>0.199779485797002</v>
+        <v>6.4983848890408993E-2</v>
       </c>
       <c r="M86">
-        <v>0.48585278466995901</v>
+        <v>1.7254171501250199</v>
       </c>
       <c r="N86">
-        <v>0.41181025307288499</v>
+        <v>0.774717470721902</v>
       </c>
       <c r="O86" s="3">
+        <f t="shared" si="13"/>
+        <v>1.454650557041846</v>
+      </c>
+      <c r="P86" s="3">
         <f t="shared" si="14"/>
-        <v>1.4408233008605125</v>
-      </c>
-      <c r="P86" s="3">
+        <v>41.671815548793589</v>
+      </c>
+      <c r="Q86" s="3">
         <f t="shared" si="15"/>
-        <v>20.318109946538939</v>
-      </c>
-      <c r="Q86" s="2">
-        <f t="shared" si="16"/>
-        <v>117703994.77774207</v>
+        <v>1.8808777429467002E-2</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.4">
@@ -5170,52 +5185,52 @@
         <v>13</v>
       </c>
       <c r="C87">
-        <v>4743816000</v>
+        <v>2918682160.1763902</v>
       </c>
       <c r="D87">
-        <v>51839168.539999999</v>
+        <v>69913113</v>
       </c>
       <c r="E87">
-        <v>2294235.52</v>
+        <v>1684551.8</v>
       </c>
       <c r="F87">
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>95200000000</v>
+        <v>44229158360</v>
       </c>
       <c r="H87">
-        <v>5.4452908130252101E-4</v>
+        <v>1.58070186258005E-3</v>
       </c>
       <c r="I87" s="1">
-        <v>2.4099112605042001E-5</v>
+        <v>3.8086906069717899E-5</v>
       </c>
       <c r="J87" s="1">
-        <v>1.2605042016806699E-5</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>0.18611434319358999</v>
+        <v>2.7064679114543502</v>
       </c>
       <c r="L87">
-        <v>6.55294314038396E-2</v>
+        <v>0.140290848278253</v>
       </c>
       <c r="M87">
-        <v>0.97975516309283694</v>
+        <v>-0.53531600801078305</v>
       </c>
       <c r="N87">
-        <v>0.41046631256342198</v>
+        <v>0.77048091724060797</v>
       </c>
       <c r="O87" s="3">
+        <f t="shared" si="13"/>
+        <v>0.6326303673532605</v>
+      </c>
+      <c r="P87" s="3">
         <f t="shared" si="14"/>
-        <v>1.8364492078329155</v>
-      </c>
-      <c r="P87" s="3">
+        <v>26.255742542318998</v>
+      </c>
+      <c r="Q87" s="3">
         <f t="shared" si="15"/>
-        <v>41.495303847444603</v>
-      </c>
-      <c r="Q87" s="2">
-        <f t="shared" si="16"/>
-        <v>79333333.333333477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.4">
@@ -5226,52 +5241,52 @@
         <v>13</v>
       </c>
       <c r="C88">
-        <v>7363738076.7159996</v>
+        <v>2596896000</v>
       </c>
       <c r="D88">
-        <v>443933068</v>
+        <v>56092133</v>
       </c>
       <c r="E88">
-        <v>60260560.490000002</v>
+        <v>-76314.490000000005</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>299757</v>
       </c>
       <c r="G88">
-        <v>472337272400</v>
+        <v>42600000000</v>
       </c>
       <c r="H88">
-        <v>9.3986457122963195E-4</v>
+        <v>1.3167167370891999E-3</v>
       </c>
       <c r="I88" s="1">
-        <v>1.27579515763829E-4</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
+        <v>-1.79141995305164E-6</v>
+      </c>
+      <c r="J88" s="1">
+        <v>7.0365492957746397E-6</v>
       </c>
       <c r="K88">
-        <v>1.1477157582292501</v>
+        <v>2.0643589263309301</v>
       </c>
       <c r="L88">
-        <v>0.61860748323692405</v>
+        <v>-7.2849284478999396E-2</v>
       </c>
       <c r="M88">
-        <v>-0.53531600801078305</v>
+        <v>0.31044658190071001</v>
       </c>
       <c r="N88">
-        <v>0.41033574448513199</v>
+        <v>0.76731874125088195</v>
       </c>
       <c r="O88" s="3">
+        <f t="shared" si="13"/>
+        <v>0.7594647898306891</v>
+      </c>
+      <c r="P88" s="3">
         <f t="shared" si="14"/>
-        <v>1.0639830786383322</v>
-      </c>
-      <c r="P88" s="3">
+        <v>-558.21640162962592</v>
+      </c>
+      <c r="Q88" s="3">
         <f t="shared" si="15"/>
-        <v>7.8382489070672365</v>
-      </c>
-      <c r="Q88" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>7.0365492957746396E-3</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.4">
@@ -5282,52 +5297,52 @@
         <v>13</v>
       </c>
       <c r="C89">
-        <v>2668008345.8559899</v>
+        <v>2012998400</v>
       </c>
       <c r="D89">
-        <v>133010395</v>
+        <v>37691604</v>
       </c>
       <c r="E89">
-        <v>4614802.9800000004</v>
+        <v>1157960.8500000001</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1029000</v>
       </c>
       <c r="G89">
-        <v>117429944800</v>
+        <v>54880000000</v>
       </c>
       <c r="H89">
-        <v>1.1326786811195E-3</v>
+        <v>6.8680036443148596E-4</v>
       </c>
       <c r="I89" s="1">
-        <v>3.9298349223101997E-5</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
+        <v>2.1099869715743399E-5</v>
+      </c>
+      <c r="J89" s="1">
+        <v>1.8749999999999998E-5</v>
       </c>
       <c r="K89">
-        <v>1.61671063886374</v>
+        <v>0.53217046681906299</v>
       </c>
       <c r="L89">
-        <v>0.14676572273493699</v>
+        <v>4.9499194145852798E-2</v>
       </c>
       <c r="M89">
-        <v>-0.53531600801078305</v>
+        <v>1.71835235900585</v>
       </c>
       <c r="N89">
-        <v>0.409386784529298</v>
+        <v>0.76667400665692298</v>
       </c>
       <c r="O89" s="3">
+        <f t="shared" si="13"/>
+        <v>1.4560271831360658</v>
+      </c>
+      <c r="P89" s="3">
         <f t="shared" si="14"/>
-        <v>0.88286291308284792</v>
-      </c>
-      <c r="P89" s="3">
+        <v>47.393657566229557</v>
+      </c>
+      <c r="Q89" s="3">
         <f t="shared" si="15"/>
-        <v>25.446361482587115</v>
-      </c>
-      <c r="Q89" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>1.8749999999999999E-2</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.4">
@@ -5338,52 +5353,52 @@
         <v>13</v>
       </c>
       <c r="C90">
-        <v>2304444946.4039998</v>
+        <v>1823913000</v>
       </c>
       <c r="D90">
-        <v>33981701</v>
+        <v>55445506</v>
       </c>
       <c r="E90">
-        <v>-1709272</v>
+        <v>785500.06</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>630000</v>
       </c>
       <c r="G90">
-        <v>24886014540</v>
+        <v>53550000000</v>
       </c>
       <c r="H90">
-        <v>1.3654938980036399E-3</v>
+        <v>1.03539693744164E-3</v>
       </c>
       <c r="I90" s="1">
-        <v>-6.86840392724451E-5</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
+        <v>1.4668535200746899E-5</v>
+      </c>
+      <c r="J90" s="1">
+        <v>1.1764705882352899E-5</v>
       </c>
       <c r="K90">
-        <v>2.1830029341466699</v>
+        <v>1.3800856336181599</v>
       </c>
       <c r="L90">
-        <v>-0.43037436600010398</v>
+        <v>1.51252464643486E-2</v>
       </c>
       <c r="M90">
-        <v>-0.53531600801078305</v>
+        <v>0.87875041835259604</v>
       </c>
       <c r="N90">
-        <v>0.40577085337859597</v>
+        <v>0.75798709947836895</v>
       </c>
       <c r="O90" s="3">
+        <f t="shared" si="13"/>
+        <v>0.96581317158509072</v>
+      </c>
+      <c r="P90" s="3">
         <f t="shared" si="14"/>
-        <v>0.73233575152697927</v>
-      </c>
-      <c r="P90" s="3">
+        <v>68.173132921212314</v>
+      </c>
+      <c r="Q90" s="3">
         <f t="shared" si="15"/>
-        <v>-14.559423274938105</v>
-      </c>
-      <c r="Q90" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>1.1764705882352899E-2</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.4">
@@ -5394,52 +5409,52 @@
         <v>13</v>
       </c>
       <c r="C91">
-        <v>2481915280</v>
+        <v>9413739303.4776001</v>
       </c>
       <c r="D91">
-        <v>38082989</v>
+        <v>49595376</v>
       </c>
       <c r="E91">
-        <v>76169.02</v>
+        <v>3531380.51</v>
       </c>
       <c r="F91">
-        <v>489476</v>
+        <v>3169546</v>
       </c>
       <c r="G91">
-        <v>51428000000</v>
+        <v>130330047120</v>
       </c>
       <c r="H91">
-        <v>7.40510791786575E-4</v>
+        <v>3.8053677640686702E-4</v>
       </c>
       <c r="I91" s="1">
-        <v>1.4810807342303799E-6</v>
+        <v>2.7095674313295601E-5</v>
       </c>
       <c r="J91" s="1">
-        <v>9.5176946410515605E-6</v>
+        <v>2.4319380450170999E-5</v>
       </c>
       <c r="K91">
-        <v>0.66281399431098098</v>
+        <v>-0.21277529980733101</v>
       </c>
       <c r="L91">
-        <v>-5.5358549523444003E-2</v>
+        <v>8.1545338389198294E-2</v>
       </c>
       <c r="M91">
-        <v>0.60866945009383899</v>
+        <v>2.38776764137552</v>
       </c>
       <c r="N91">
-        <v>0.405374964960458</v>
+        <v>0.75217922665246395</v>
       </c>
       <c r="O91" s="3">
+        <f t="shared" si="13"/>
+        <v>2.6278669027531985</v>
+      </c>
+      <c r="P91" s="3">
         <f t="shared" si="14"/>
-        <v>1.350419212105437</v>
-      </c>
-      <c r="P91" s="3">
+        <v>36.906259960074479</v>
+      </c>
+      <c r="Q91" s="3">
         <f t="shared" si="15"/>
-        <v>675.18263987117086</v>
-      </c>
-      <c r="Q91" s="2">
-        <f t="shared" si="16"/>
-        <v>105067459.89588873</v>
+        <v>2.4319380450170999E-2</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.4">
@@ -5450,52 +5465,52 @@
         <v>13</v>
       </c>
       <c r="C92">
-        <v>7946616081.8000002</v>
+        <v>2221235855.7515998</v>
       </c>
       <c r="D92">
-        <v>128556293</v>
+        <v>56237523</v>
       </c>
       <c r="E92">
-        <v>-555761.84</v>
+        <v>-2825730.78</v>
       </c>
       <c r="F92">
-        <v>2520533</v>
+        <v>788788</v>
       </c>
       <c r="G92">
-        <v>208026599000</v>
+        <v>54255883140</v>
       </c>
       <c r="H92">
-        <v>6.1798007378854403E-4</v>
+        <v>1.0365239628463199E-3</v>
       </c>
       <c r="I92" s="1">
-        <v>-2.6715902806256002E-6</v>
+        <v>-5.2081555334904003E-5</v>
       </c>
       <c r="J92" s="1">
-        <v>1.2116397672780199E-5</v>
+        <v>1.45382943627447E-5</v>
       </c>
       <c r="K92">
-        <v>0.36477419061421201</v>
+        <v>1.38282697420492</v>
       </c>
       <c r="L92">
-        <v>-7.7553584763845704E-2</v>
+        <v>-0.34163805273241199</v>
       </c>
       <c r="M92">
-        <v>0.92102224038062597</v>
+        <v>1.2121236781595699</v>
       </c>
       <c r="N92">
-        <v>0.40274761541033099</v>
+        <v>0.75110419987735999</v>
       </c>
       <c r="O92" s="3">
+        <f t="shared" si="13"/>
+        <v>0.9647630309037678</v>
+      </c>
+      <c r="P92" s="3">
         <f t="shared" si="14"/>
-        <v>1.6181751522657879</v>
-      </c>
-      <c r="P92" s="3">
+        <v>-19.200655463716927</v>
+      </c>
+      <c r="Q92" s="3">
         <f t="shared" si="15"/>
-        <v>-374.30889281639105</v>
-      </c>
-      <c r="Q92" s="2">
-        <f t="shared" si="16"/>
-        <v>82532781.360133618</v>
+        <v>1.4538294362744701E-2</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.4">
@@ -5506,52 +5521,44 @@
         <v>13</v>
       </c>
       <c r="C93">
-        <v>1371576600</v>
+        <v>5136431870.7969904</v>
       </c>
       <c r="D93">
-        <v>36454623</v>
-      </c>
-      <c r="E93">
-        <v>977672.41</v>
+        <v>36908515</v>
       </c>
       <c r="F93">
-        <v>239705</v>
+        <v>2523210</v>
       </c>
       <c r="G93">
-        <v>42060000000</v>
+        <v>124038441700</v>
       </c>
       <c r="H93">
-        <v>8.6672902995720404E-4</v>
-      </c>
-      <c r="I93" s="1">
-        <v>2.32447077983832E-5</v>
-      </c>
+        <v>2.9755706774571599E-4</v>
+      </c>
+      <c r="I93" s="1"/>
       <c r="J93" s="1">
-        <v>5.6991203043271497E-6</v>
+        <v>2.03421613930191E-5</v>
       </c>
       <c r="K93">
-        <v>0.96982320426216095</v>
-      </c>
-      <c r="L93">
-        <v>6.0962841677488E-2</v>
+        <v>-0.414612492017224</v>
       </c>
       <c r="M93">
-        <v>0.14969343997237999</v>
+        <v>1.90972322655958</v>
       </c>
       <c r="N93">
-        <v>0.39349316197067602</v>
+        <v>0.74755536727117899</v>
       </c>
       <c r="O93" s="3">
+        <f t="shared" si="13"/>
+        <v>3.3606998737283305</v>
+      </c>
+      <c r="P93" s="3" t="e">
         <f t="shared" si="14"/>
-        <v>1.1537631317706947</v>
-      </c>
-      <c r="P93" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q93" s="3">
         <f t="shared" si="15"/>
-        <v>43.020545092399729</v>
-      </c>
-      <c r="Q93" s="2">
-        <f t="shared" si="16"/>
-        <v>175465676.56077266</v>
+        <v>2.0342161393019101E-2</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.4">
@@ -5562,52 +5569,52 @@
         <v>13</v>
       </c>
       <c r="C94">
-        <v>4989860144.2452002</v>
+        <v>3958386709.9349899</v>
       </c>
       <c r="D94">
-        <v>90844478</v>
+        <v>69516926</v>
       </c>
       <c r="E94">
-        <v>18072900.010000002</v>
+        <v>882479.72</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>420636</v>
       </c>
       <c r="G94">
-        <v>109643158520</v>
+        <v>56508018700</v>
       </c>
       <c r="H94">
-        <v>8.2854670757618698E-4</v>
+        <v>1.2302134741099999E-3</v>
       </c>
       <c r="I94" s="1">
-        <v>1.64833814110739E-4</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
+        <v>1.5616893678135601E-5</v>
+      </c>
+      <c r="J94" s="1">
+        <v>7.4438284986268599E-6</v>
       </c>
       <c r="K94">
-        <v>0.87694974319823604</v>
+        <v>1.85395115317265</v>
       </c>
       <c r="L94">
-        <v>0.81772281447988804</v>
+        <v>2.01939961319418E-2</v>
       </c>
       <c r="M94">
-        <v>-0.53531600801078305</v>
+        <v>0.35939976888800601</v>
       </c>
       <c r="N94">
-        <v>0.38645218322244601</v>
+        <v>0.74451497273086897</v>
       </c>
       <c r="O94" s="3">
+        <f t="shared" si="13"/>
+        <v>0.81286705197522868</v>
+      </c>
+      <c r="P94" s="3">
         <f t="shared" si="14"/>
-        <v>1.2069325613825428</v>
-      </c>
-      <c r="P94" s="3">
+        <v>64.033220729423789</v>
+      </c>
+      <c r="Q94" s="3">
         <f t="shared" si="15"/>
-        <v>6.0667163797361257</v>
-      </c>
-      <c r="Q94" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>7.4438284986268598E-3</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.4">
@@ -5618,52 +5625,52 @@
         <v>13</v>
       </c>
       <c r="C95">
-        <v>2757171933.0479898</v>
+        <v>7616766796.5377903</v>
       </c>
       <c r="D95">
-        <v>41402461</v>
+        <v>147903397</v>
       </c>
       <c r="E95">
-        <v>1934045.01</v>
+        <v>9545914.7699999996</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>38357984600</v>
+        <v>103685907930</v>
       </c>
       <c r="H95">
-        <v>1.07937008244171E-3</v>
+        <v>1.4264561110836E-3</v>
       </c>
       <c r="I95" s="1">
-        <v>5.0420923574801098E-5</v>
+        <v>9.2065691091257999E-5</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95">
-        <v>1.48704450660837</v>
+        <v>2.33128547354681</v>
       </c>
       <c r="L95">
-        <v>0.20621322744137799</v>
+        <v>0.42879456829391199</v>
       </c>
       <c r="M95">
         <v>-0.53531600801078305</v>
       </c>
       <c r="N95">
-        <v>0.38598057534632202</v>
+        <v>0.74158801127664697</v>
       </c>
       <c r="O95" s="3">
+        <f t="shared" si="13"/>
+        <v>0.70103804262183367</v>
+      </c>
+      <c r="P95" s="3">
         <f t="shared" si="14"/>
-        <v>0.92646629387562607</v>
-      </c>
-      <c r="P95" s="3">
+        <v>10.86180952043007</v>
+      </c>
+      <c r="Q95" s="3">
         <f t="shared" si="15"/>
-        <v>19.833036150487548</v>
-      </c>
-      <c r="Q95" s="2" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
